--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_General.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.1128049266606004</v>
+        <v>0.1044352602029346</v>
       </c>
       <c r="D2">
-        <v>0.9101897058309525</v>
+        <v>0.917437593216758</v>
       </c>
       <c r="E2">
         <v>4.73898130604826</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.6244066379954937</v>
+        <v>-0.4885304526651872</v>
       </c>
       <c r="D3">
-        <v>0.5323888354036126</v>
+        <v>0.6283104280076994</v>
       </c>
       <c r="E3">
         <v>4.73898130604826</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-2.52775141286865</v>
+        <v>-1.82906190066623</v>
       </c>
       <c r="D4">
-        <v>0.0115098739929016</v>
+        <v>0.07617278644637326</v>
       </c>
       <c r="E4">
         <v>4.73898130604826</v>
@@ -505,7 +502,7 @@
         <v>5.706577115484545</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.388519838713319</v>
+        <v>-0.9331340402400529</v>
       </c>
       <c r="D5">
-        <v>0.1650401812341078</v>
+        <v>0.3573305317877868</v>
       </c>
       <c r="E5">
         <v>4.73898130604826</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.6430589481510203</v>
+        <v>-0.8583555709111216</v>
       </c>
       <c r="D6">
-        <v>0.5202151109530111</v>
+        <v>0.3967071067502275</v>
       </c>
       <c r="E6">
         <v>4.684149121368249</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.866611189397564</v>
+        <v>-1.708393380181979</v>
       </c>
       <c r="D7">
-        <v>0.06201394060105714</v>
+        <v>0.09667916861347425</v>
       </c>
       <c r="E7">
         <v>4.684149121368249</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.271986362458086</v>
+        <v>-1.433878655399216</v>
       </c>
       <c r="D8">
-        <v>0.2034366627686306</v>
+        <v>0.1607403334695758</v>
       </c>
       <c r="E8">
         <v>4.684149121368249</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.148200764902385</v>
+        <v>-1.10886489851142</v>
       </c>
       <c r="D9">
-        <v>0.2509401981719557</v>
+        <v>0.2752706358671222</v>
       </c>
       <c r="E9">
         <v>5.041708832658706</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.7990448726704469</v>
+        <v>-1.297647867694226</v>
       </c>
       <c r="D10">
-        <v>0.4243020536358855</v>
+        <v>0.2031437434944698</v>
       </c>
       <c r="E10">
         <v>5.041708832658706</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.4649091774708519</v>
+        <v>0.3354258581702169</v>
       </c>
       <c r="D11">
-        <v>0.6420165862049272</v>
+        <v>0.739364821765006</v>
       </c>
       <c r="E11">
         <v>5.706577115484545</v>
